--- a/Project/table.xlsx
+++ b/Project/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\SFU_CA\CMPT-825\nlpclass-1207-g-oasis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686F7A84-CBF1-419D-950E-97B6DE11DCDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC7FA79-3B49-4594-8976-DB02D9D622B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{D499AB2F-A874-44E1-BB81-27F0988C08A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D499AB2F-A874-44E1-BB81-27F0988C08A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Model names</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>770M</t>
+  </si>
+  <si>
+    <t>XSum</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>CNN/Dailymail</t>
+  </si>
+  <si>
+    <t>Pre-trained data</t>
+  </si>
+  <si>
+    <t>Finetune data</t>
   </si>
 </sst>
 </file>
@@ -134,9 +152,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -453,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCB3A7-9581-491F-BD0D-63FE0D14CE0A}">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B3:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,10 +492,12 @@
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +513,14 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -501,8 +536,14 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -518,8 +559,14 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,8 +582,14 @@
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -552,8 +605,14 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -569,8 +628,14 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -585,6 +650,12 @@
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Project/table.xlsx
+++ b/Project/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\SFU_CA\CMPT-825\nlpclass-1207-g-oasis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC7FA79-3B49-4594-8976-DB02D9D622B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C586B0-88FB-4A77-ABF1-BFF5F0CFFD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D499AB2F-A874-44E1-BB81-27F0988C08A4}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>BART-base</t>
   </si>
   <si>
-    <t>Number of parameters</t>
-  </si>
-  <si>
     <t>BART-large</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Finetune data</t>
+  </si>
+  <si>
+    <t>Parameter numbers</t>
   </si>
 </sst>
 </file>
@@ -483,21 +483,21 @@
   <dimension ref="B3:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -534,16 +534,16 @@
         <v>0.11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -557,18 +557,18 @@
         <v>0.2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>0.27</v>
@@ -580,18 +580,18 @@
         <v>0.25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.27</v>
@@ -603,18 +603,18 @@
         <v>0.26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>0.28000000000000003</v>
@@ -626,18 +626,18 @@
         <v>0.27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>0.28000000000000003</v>
@@ -649,13 +649,13 @@
         <v>0.26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Project/table.xlsx
+++ b/Project/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\SFU_CA\CMPT-825\nlpclass-1207-g-oasis\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C586B0-88FB-4A77-ABF1-BFF5F0CFFD80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E9A9EA-B578-4380-BFB4-ADB4DD5F21D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D499AB2F-A874-44E1-BB81-27F0988C08A4}"/>
+    <workbookView xWindow="132" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{D499AB2F-A874-44E1-BB81-27F0988C08A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>Model names</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Parameter numbers</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t># Parameters</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCCB3A7-9581-491F-BD0D-63FE0D14CE0A}">
-  <dimension ref="B3:H9"/>
+  <dimension ref="B3:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -495,9 +501,17 @@
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -543,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -566,7 +580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,7 +603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -612,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -635,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -656,6 +670,202 @@
       </c>
       <c r="H9" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="24" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>
